--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\SeleniumPython\BDDBehavePOM\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CBF83F-F238-40F3-BB10-DE7B65264A9A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{B96574F7-F181-44F6-AD6B-6D42D9D56DEE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="7550"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>username</t>
   </si>
@@ -33,16 +27,16 @@
     <t>password</t>
   </si>
   <si>
-    <t>selenium.testmay2017</t>
+    <t>selenium.testmay1999</t>
   </si>
   <si>
-    <t>test@1234</t>
+    <t>Dilee@123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -152,7 +146,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -204,7 +198,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -398,26 +392,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AA6EA35-7C08-4E84-9B7E-4E2EB52BFBA9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -425,7 +419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -433,18 +427,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{EB467B7D-D98E-49F0-8BFC-A3BFF8E19044}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{970607BA-CB77-49EC-9278-79C96A1386A1}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
